--- a/DRE/cap06-Workflows/VTA/IPT_ACRM_TablasDetalladaVentas_150409.xlsx
+++ b/DRE/cap06-Workflows/VTA/IPT_ACRM_TablasDetalladaVentas_150409.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Diseñar un producto</t>
+  </si>
+  <si>
+    <t>Diseñar la Lista de Materiales</t>
+  </si>
+  <si>
+    <t>Dar la Lista de Materiales de alta en SAP</t>
   </si>
 </sst>
 </file>
@@ -455,6 +461,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,9 +471,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1115,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1230,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,8 +1260,8 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1302,7 +1308,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1332,7 +1338,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1437,14 +1443,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1455,8 +1461,8 @@
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1663,8 +1669,8 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1916,8 +1922,8 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
